--- a/Data/utility_multiplier.xlsx
+++ b/Data/utility_multiplier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\UAMS Users\Acharya, Mahip\Markov modeling CE Shiny\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061C6FE-CA70-47DD-9786-758AE9CCE000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AB73D-5297-4DFE-BD5A-AA393C99D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
